--- a/data/Section1.xlsx
+++ b/data/Section1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Final Year Project\PSC_bridge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\PSC_bridge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A11931C-F85C-43EF-A3D1-CC9340675897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD1BC4D-3760-4777-8E44-C147281DEFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView minimized="1" xWindow="1740" yWindow="2388" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Section" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>rectangle</t>
   </si>
   <si>
     <t>triangle</t>
   </si>
+  <si>
+    <t>Bottom Slab</t>
+  </si>
+  <si>
+    <t>Top Slab</t>
+  </si>
+  <si>
+    <t>Small Triangular Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Kerb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Kerb </t>
+  </si>
+  <si>
+    <t>Right Rectangular Cantilever</t>
+  </si>
+  <si>
+    <t>Right Small Triangular Section</t>
+  </si>
+  <si>
+    <t>Left Rectangular Cantilever</t>
+  </si>
+  <si>
+    <t>Left Column</t>
+  </si>
+  <si>
+    <t>Right Column</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,16 +603,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>213875</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>427235</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>8033</xdr:rowOff>
+      <xdr:rowOff>30893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -611,7 +641,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5242560" y="175260"/>
+          <a:off x="6926580" y="198120"/>
           <a:ext cx="5944115" cy="4770533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1160,17 +1190,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -1193,7 +1224,10 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1216,7 +1250,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1239,7 +1276,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1262,7 +1302,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1285,7 +1328,10 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1308,7 +1354,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1331,7 +1380,10 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1354,7 +1406,10 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1377,7 +1432,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1400,7 +1458,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1423,7 +1484,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1446,7 +1510,10 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
       </c>
       <c r="T12">
         <v>2</v>
@@ -1475,7 +1542,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1498,7 +1568,10 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="20:22" x14ac:dyDescent="0.3">
